--- a/planilha_cliente.xlsx
+++ b/planilha_cliente.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvpic\PycharmProjects\projeto_Santander1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvpic\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C026EC-7696-4227-8AA0-8F0C424B54B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F969AA6-B58A-426B-892F-CC558BB3AF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,16 +37,16 @@
     <t>nome_Sergio</t>
   </si>
   <si>
-    <t>João Vitor: joaovitorpiccolo015@gmail.com</t>
-  </si>
-  <si>
-    <t>Renato Cariane: jvpiccolo014@gmail.com</t>
-  </si>
-  <si>
     <t>Heineken</t>
   </si>
   <si>
     <t>Natura</t>
+  </si>
+  <si>
+    <t>Seu Madruga: email_Generico</t>
+  </si>
+  <si>
+    <t>Chavez:  email_Generico</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -451,12 +451,12 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
